--- a/biology/Biochimie/Anticancéreux/Anticancéreux.xlsx
+++ b/biology/Biochimie/Anticancéreux/Anticancéreux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anticanc%C3%A9reux</t>
+          <t>Anticancéreux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un anticancéreux ou  antinéoplasique  est un médicament antitumoral destiné à bloquer la prolifération des cellules cancéreuses - le néoplasme désignant une tumeur ou un cancer. Toutefois, la plupart des antinéoplasiques ne sont pas des médicaments à effet spécifique sur les cellules néoplasiques étant donné qu'ils touchent également les cellules saines[1]. 
-Les antinéoplasiques regroupent plusieurs dizaines de médicaments, dont les agents alkylants, les antimétabolites, les agents intercalants et les antimitotiques[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un anticancéreux ou  antinéoplasique  est un médicament antitumoral destiné à bloquer la prolifération des cellules cancéreuses - le néoplasme désignant une tumeur ou un cancer. Toutefois, la plupart des antinéoplasiques ne sont pas des médicaments à effet spécifique sur les cellules néoplasiques étant donné qu'ils touchent également les cellules saines. 
+Les antinéoplasiques regroupent plusieurs dizaines de médicaments, dont les agents alkylants, les antimétabolites, les agents intercalants et les antimitotiques.
 Au sein de la classification Anatomique, Thérapeutique, et Chimique de l'OMS, ils appartiennent à la classe ATC L01.
 </t>
         </is>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anticanc%C3%A9reux</t>
+          <t>Anticancéreux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,120 +527,475 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Antifolique
-Méthotrexate = améthoprime
+          <t>Antifolique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Méthotrexate = améthoprime
 Raltitrexed
-Pémétrexed
-Antipurique
-Mercaptopurine = 6-mercaptopurine = 6-MP
+Pémétrexed</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Antimétabolite</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Antipurique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Mercaptopurine = 6-mercaptopurine = 6-MP
 Thioguanine = 6-thioguanine
 Pentostatine = 2-déoxycoformycine
 Cladribine = 2-chlorodéoxyadénosine
-Fludarabine
-Antipyrimidique
-5 fluoro-uracile
+Fludarabine</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Antimétabolite</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Antipyrimidique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>5 fluoro-uracile
 Tégafur uracile
 Capécitabine
-Cytarabine = cytosine-arabonoside
-Autres antimétabolites
-Hydroxycarbamide = hydroxyurée
+Cytarabine = cytosine-arabonoside</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Antimétabolite</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Autres antimétabolites</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hydroxycarbamide = hydroxyurée
 Gemcitabine</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
         <is>
           <t>Agent alkylant</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Moutarde azotée
-Chlorambucil
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Moutarde azotée</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Chlorambucil
 Melphalan
 Chlorméthine = métachloroéthamine
 Estramustine
 Ifosfamide
-Cyclophosphamide
-Nitroso-urée
-Fotémustine
+Cyclophosphamide</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Agent alkylant</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nitroso-urée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Fotémustine
 Lomustine
 Carmustine
-Streptozocine
-Organoplatine
-Carboplatine
+Streptozocine</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Agent alkylant</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Organoplatine</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Carboplatine
 Cisplatine
-Oxaliplatine
-Éthylène imine
-Thiotépa
-Altrétamine
-Amide Imidazole
-Procarbazine
+Oxaliplatine</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Agent alkylant</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Éthylène imine</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Thiotépa
+Altrétamine</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Agent alkylant</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Amide Imidazole</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Procarbazine
 Témozolomide
-Dacarbazine
-Autres agents alkylants
-Busulfan
+Dacarbazine</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Agent alkylant</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Autres agents alkylants</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Busulfan
 Mitomycine C
 Pipobroman</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Agent intercalant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dérivé de la camptothécine
-Irinotécan
-Topotécan
-Anthracycline
-Épirubicine
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Dérivé de la camptothécine</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Irinotécan
+Topotécan</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Agent intercalant</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Anthracycline</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Épirubicine
 Daunorubicine
 Doxorubicine
 Pirarubicine
-Idarubicine
-Autres agents intercalants
-Mitoxantrone
+Idarubicine</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Agent intercalant</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Autres agents intercalants</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Mitoxantrone
 Amsacrine
 Elliptinium
 Actinomycine D ou Dactinomycine
@@ -637,101 +1004,383 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Molécule ayant une action sur le fuseau mitotique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Vinca-alcaloïde : poison du fuseau
-Vinorelbine
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Vinca-alcaloïde : poison du fuseau</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Vinorelbine
 Vindésine
 Vincristine
-Vinblastine
-Taxoïde : stabilisant du fuseau
-Paclitaxel
+Vinblastine</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Molécule ayant une action sur le fuseau mitotique</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Taxoïde : stabilisant du fuseau</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Paclitaxel
 Docétaxel</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
         <is>
           <t>Inhibiteur de tyrosine kinase</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Inhibiteur du VEGFR
-Sunitinib
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Inhibiteur du VEGFR</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Sunitinib
 Axitinib
-Pazopanib
-Inhibiteur de l'EGFR
-Afatinib
+Pazopanib</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Inhibiteur de tyrosine kinase</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Inhibiteur de l'EGFR</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Afatinib
 Erlotinib
 Gefitinib
-Lapatinib
-Inhibiteur du PDGF-R (en)
-Imatinib
-Inhibiteur de la protéine de fusion BCR-Abl
-Imatinib
+Lapatinib</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Inhibiteur de tyrosine kinase</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Inhibiteur du PDGF-R (en)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Imatinib</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Inhibiteur de tyrosine kinase</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la protéine de fusion BCR-Abl</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Imatinib
 Dasatinib
 Nilotinib
 Bosutinib
 Ponatinib
 Sorafenib
-Regorafenib
-Inhibiteur de la sérine-thréonine kinase RAF
-Dabrafenib
+Regorafenib</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Inhibiteur de tyrosine kinase</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la sérine-thréonine kinase RAF</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Dabrafenib
 Vemurafenib
 Sorafenib
-Regorafenib
-Inhibiteur de la sérine-thréonine kinase MEK
-Cobimetinib
-Tramétinib
-Inhibiteur de la sérine-thréonine kinase mTor
-Temsirolimus
-Evérolimus
-Autres inhibiteurs de tyrosine kinase
-Crizotinib
+Regorafenib</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Inhibiteur de tyrosine kinase</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la sérine-thréonine kinase MEK</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Cobimetinib
+Tramétinib</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Inhibiteur de tyrosine kinase</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Inhibiteur de la sérine-thréonine kinase mTor</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Temsirolimus
+Evérolimus</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Inhibiteur de tyrosine kinase</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Autres inhibiteurs de tyrosine kinase</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Crizotinib
 Ibrutinib
 Idélalisib
 Ruxolitinib
@@ -740,48 +1389,222 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Anticorps monoclonal</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Les anticorps monoclonaux anticancéreux entrent dans la catégorie des thérapies ciblées. Ils peuvent avoir un effet cytolytique en fixant une cible membranaire ce qui permet l'activation du complément ou le recrutement de cellules immunitaires cytotoxiques. Certains ont un effet neutralisant, empêchant alors la fixation du ligand à son récepteur.
-Anti-VEGF
-Les anti-VEGF inhibent la formation de vaisseaux vascularisant la tumeur en empêchant la fixation du VEGF à son récepteur. Le bévacizumab cible directement le VEGF tandis que le ramucirumab est dirigé contre le récepteur 2 du VEGF.
-Anti-EGFR
-Cetuximab
-Panitumumab
-Anti-HER2
-Trastuzumab
-Pertuzumab
-Anti-CD20
-Obinutuzumab
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anticorps monoclonaux anticancéreux entrent dans la catégorie des thérapies ciblées. Ils peuvent avoir un effet cytolytique en fixant une cible membranaire ce qui permet l'activation du complément ou le recrutement de cellules immunitaires cytotoxiques. Certains ont un effet neutralisant, empêchant alors la fixation du ligand à son récepteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Anticorps monoclonal</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Anti-VEGF</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les anti-VEGF inhibent la formation de vaisseaux vascularisant la tumeur en empêchant la fixation du VEGF à son récepteur. Le bévacizumab cible directement le VEGF tandis que le ramucirumab est dirigé contre le récepteur 2 du VEGF.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Anticorps monoclonal</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Anti-EGFR</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Cetuximab
+Panitumumab</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Anticorps monoclonal</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Anti-HER2</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Trastuzumab
+Pertuzumab</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Anticorps monoclonal</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Anti-CD20</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Obinutuzumab
 Rituximab
 Ibritumomab
-Ofatumumab
-Autres anticorps monoclonaux
-Alemtuzumab
+Ofatumumab</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Anticorps monoclonal</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Autres anticorps monoclonaux</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Alemtuzumab
 Cemiplimab
 Blinatumomab
 Daratumumab
@@ -790,68 +1613,72 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Virus</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certains virus infectent préférentiellement les cellules cancéreuses (ou ces cellules sont plus vulnérables à l'infection par ces virus) en épargnant les cellules saines[3], ce qui explique certaines rémissions inattendues et soudaines de cancers après une infection, observées par des médecins depuis les années 1800. Les premières recherches thérapeutiques utilisant des virus oncolytiques remontent aux années 1950[3].
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certains virus infectent préférentiellement les cellules cancéreuses (ou ces cellules sont plus vulnérables à l'infection par ces virus) en épargnant les cellules saines, ce qui explique certaines rémissions inattendues et soudaines de cancers après une infection, observées par des médecins depuis les années 1800. Les premières recherches thérapeutiques utilisant des virus oncolytiques remontent aux années 1950.
 En 2005, les autorités chinoises ont approuvé l'usage d'un adénovirus oncolytique (dit "H101") contre le cancer de la tête et du cou, après que le traitement ait expérimentalement été démontré efficace pour améliorer le taux de survie des patients traités. 
 En 2015, un virus génétiquement modifiés (virus oncolytiques) T-VEC (pour « talimogene laherparepvec ») peut aider le système immunitaire à cibler les cellules cancéreuses. 
-Ce virus de l'herpès est génétiquement modifié (par ajout d'un gène codant une protéine qui stimule le système immunitaire)  pour provoquer une réponse immunitaire contre le mélanome avancé.  Il a aussi été modifié pour provoquer une forme très fortement atténuée d’herpès. Le 27 octobre 2015, il est devenu le premier traitement de ce type approuvé aux États-Unis par la FDA, quatre jours après une approbation par l'Agence européenne du médicament[4]. Selon les premiers résultats d'essais, la survie des patients traités a été améliorée en moyenne de 4,4 mois, après injection du virus directement dans une tumeur, et ensuite les autres tumeurs régressent ou progressent moins vite, ce qui prouve que le système immunitaire a réagi. La combinaison de l'injection du virus avec une immunothérapie ciblant le cancer pourrait améliorer l'efficacité de l'immunothérapie[4]. On cherche un moyen de mieux atteindre (systémiquement, c'est-à-dire dans tout le corps) les cancers et leurs métastases, afin que le virus détruisent les cellules cancéreuses, avant qu'il ne soit lui-même éliminé par le système immunitaire[4]. La combinaison de plusieurs virus, éventuellement non-humains (ex Poxvirus de la stomatite bovine), ou l'utilisation d'un virus capable de se cacher dans certaines cellules sanguines, échappant ainsi au système immunitaire sont des solutions également étudiées[4].
+Ce virus de l'herpès est génétiquement modifié (par ajout d'un gène codant une protéine qui stimule le système immunitaire)  pour provoquer une réponse immunitaire contre le mélanome avancé.  Il a aussi été modifié pour provoquer une forme très fortement atténuée d’herpès. Le 27 octobre 2015, il est devenu le premier traitement de ce type approuvé aux États-Unis par la FDA, quatre jours après une approbation par l'Agence européenne du médicament. Selon les premiers résultats d'essais, la survie des patients traités a été améliorée en moyenne de 4,4 mois, après injection du virus directement dans une tumeur, et ensuite les autres tumeurs régressent ou progressent moins vite, ce qui prouve que le système immunitaire a réagi. La combinaison de l'injection du virus avec une immunothérapie ciblant le cancer pourrait améliorer l'efficacité de l'immunothérapie. On cherche un moyen de mieux atteindre (systémiquement, c'est-à-dire dans tout le corps) les cancers et leurs métastases, afin que le virus détruisent les cellules cancéreuses, avant qu'il ne soit lui-même éliminé par le système immunitaire. La combinaison de plusieurs virus, éventuellement non-humains (ex Poxvirus de la stomatite bovine), ou l'utilisation d'un virus capable de se cacher dans certaines cellules sanguines, échappant ainsi au système immunitaire sont des solutions également étudiées.
 </t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Biochimie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Anticancéreux</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anticanc%C3%A9reux</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
         <is>
           <t>Phénomènes d'inhibition de l'efficacité médicamenteuse</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour des raisons mal comprises, certains médicaments sont plus ou moins actifs et efficaces selon les personnes.
-Dans certains cas, l'explication est connue. Par exemple, une surexpression des métallothionéines, telle qu'on en observe après intoxication par des métaux lourds, inhibe tout un sous-ensemble de médicaments anticancéreux cliniquement importants et parmi les plus utilisés (le cisplatine (cis-diaminedichloroplatine(II)) et des agents alkylants tels que le chlorambucil ou le melphalan[5]). On a confirmé cette explication par le fait que des cellules transfectées via un vecteur viral contenant de l'ADN humain codant la métallothionéine-IIA deviennent résistantes au cis-diaminedichloroplatine(II), au melphalan et au chlorambucil (mais non au 5-fluorouracile ou à la vincristine)[5].
+Dans certains cas, l'explication est connue. Par exemple, une surexpression des métallothionéines, telle qu'on en observe après intoxication par des métaux lourds, inhibe tout un sous-ensemble de médicaments anticancéreux cliniquement importants et parmi les plus utilisés (le cisplatine (cis-diaminedichloroplatine(II)) et des agents alkylants tels que le chlorambucil ou le melphalan). On a confirmé cette explication par le fait que des cellules transfectées via un vecteur viral contenant de l'ADN humain codant la métallothionéine-IIA deviennent résistantes au cis-diaminedichloroplatine(II), au melphalan et au chlorambucil (mais non au 5-fluorouracile ou à la vincristine).
 </t>
         </is>
       </c>
